--- a/Senaryo.xlsx
+++ b/Senaryo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15576" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15570" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SENARYO 1" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,12 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="86">
   <si>
     <t>SENARYO 1</t>
   </si>
@@ -68,30 +63,6 @@
     <t>NORTH</t>
   </si>
   <si>
-    <t>tip1</t>
-  </si>
-  <si>
-    <t>tip2</t>
-  </si>
-  <si>
-    <t>wp1</t>
-  </si>
-  <si>
-    <t>wp2</t>
-  </si>
-  <si>
-    <t>wp3</t>
-  </si>
-  <si>
-    <t>wp4</t>
-  </si>
-  <si>
-    <t>wp5</t>
-  </si>
-  <si>
-    <t>wp6</t>
-  </si>
-  <si>
     <t>wp-faf</t>
   </si>
   <si>
@@ -294,6 +265,18 @@
   </si>
   <si>
     <t>27:44:00</t>
+  </si>
+  <si>
+    <t>SOUTH-WEST</t>
+  </si>
+  <si>
+    <t>NORTH-WEST</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>tip/wp</t>
   </si>
 </sst>
 </file>
@@ -303,7 +286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +299,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -439,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -469,7 +460,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -479,7 +470,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,9 +489,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -752,7 +749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -762,13 +759,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="14.33203125" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -785,7 +782,7 @@
       <c r="I1" s="13"/>
       <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -817,368 +814,368 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>43</v>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="L4">
         <f>SECOND(K4)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1214,43 +1211,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="11">
-        <v>5.2083333333333336E-2</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="16">
+        <f>B2+60</f>
+        <v>425</v>
+      </c>
+      <c r="D2" s="16">
+        <f t="shared" ref="D2:G2" si="0">C2+60</f>
+        <v>485</v>
+      </c>
+      <c r="E2" s="16">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+      <c r="F2" s="16">
+        <f t="shared" si="0"/>
+        <v>605</v>
+      </c>
+      <c r="G2" s="16">
+        <f t="shared" si="0"/>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
+        <f>7*60+29</f>
+        <v>449</v>
+      </c>
+      <c r="C3" s="16">
+        <f>B3+60</f>
+        <v>509</v>
+      </c>
+      <c r="D3" s="16">
+        <f t="shared" ref="D3:G3" si="1">C3+60</f>
+        <v>569</v>
+      </c>
+      <c r="E3" s="16">
+        <f t="shared" si="1"/>
+        <v>629</v>
+      </c>
+      <c r="F3" s="16">
+        <f t="shared" si="1"/>
+        <v>689</v>
+      </c>
+      <c r="G3" s="16">
+        <f t="shared" si="1"/>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -1266,25 +1310,25 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -1298,7 +1342,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>60</v>
@@ -1312,7 +1356,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>60</v>
@@ -1326,7 +1370,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1342,11 +1386,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B1">
         <v>300</v>
@@ -1365,362 +1409,362 @@
       <selection activeCell="B1" sqref="B1:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="D3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="G5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="D6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="D9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="F10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="G10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="H10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Senaryo.xlsx
+++ b/Senaryo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15570" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15570" windowHeight="9330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SENARYO 1" sheetId="1" r:id="rId1"/>
@@ -461,15 +461,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,6 +470,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,18 +769,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -818,7 +818,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -853,7 +853,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -892,7 +892,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -927,7 +927,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -962,7 +962,7 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -997,7 +997,7 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1032,7 +1032,7 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1067,7 +1067,7 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1102,7 +1102,7 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1137,7 +1137,7 @@
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1211,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1244,26 +1244,26 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <f>B2+60</f>
         <v>425</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <f t="shared" ref="D2:G2" si="0">C2+60</f>
         <v>485</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <f t="shared" si="0"/>
         <v>545</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="13">
         <f t="shared" si="0"/>
         <v>605</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="13">
         <f t="shared" si="0"/>
         <v>665</v>
       </c>
@@ -1272,27 +1272,27 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="15">
         <f>7*60+29</f>
         <v>449</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <f>B3+60</f>
         <v>509</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <f t="shared" ref="D3:G3" si="1">C3+60</f>
         <v>569</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <f t="shared" si="1"/>
         <v>629</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <f t="shared" si="1"/>
         <v>689</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <f t="shared" si="1"/>
         <v>749</v>
       </c>
@@ -1380,19 +1380,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>300</v>
       </c>
     </row>
